--- a/R1 HINO TRUCK DATABASE - Irfan B. Satria.xlsx
+++ b/R1 HINO TRUCK DATABASE - Irfan B. Satria.xlsx
@@ -1357,7 +1357,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3B135E3-EA9E-4056-91EC-3A68A9C460CB}" type="CELLRANGE">
+                    <a:fld id="{758337C3-A748-4828-A410-B9D6D9FDAB15}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1396,7 +1396,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4036BE34-D27B-4DAC-9C31-DCC6435757FD}" type="CELLRANGE">
+                    <a:fld id="{D3BDAEF8-AA2E-43CA-9A5E-8BA8FF6705ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1429,7 +1429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB06ED0C-49C8-4F10-9084-B9E0E8E56DE3}" type="CELLRANGE">
+                    <a:fld id="{CA190C82-2664-48DC-9C16-819930D2E864}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1469,7 +1469,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84A27D95-D94E-403E-B04E-7887305DEDA2}" type="CELLRANGE">
+                    <a:fld id="{3804AAFF-22B6-4C1D-B1F4-544256107983}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1508,7 +1508,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{90D4A9C0-4777-4DBB-AA80-BA36251DED7B}" type="CELLRANGE">
+                    <a:fld id="{FC5D3A02-6833-447B-9E2F-CA2CED383B72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1547,7 +1547,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2B8C446-0882-409B-A905-8B11FD8BD85C}" type="CELLRANGE">
+                    <a:fld id="{55E3921C-0540-40C9-BEAE-943AE0F70D72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1586,7 +1586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF844E34-9A84-43D2-BFDB-F3CEDED60337}" type="CELLRANGE">
+                    <a:fld id="{7C6A4455-E7AC-4A65-83DA-582677942250}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1625,7 +1625,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EDCEB8CE-82CD-4ADA-A8F9-FC658DFFB2EB}" type="CELLRANGE">
+                    <a:fld id="{5601F7DE-3D7B-4539-8E52-A5C0D83291DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1664,7 +1664,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{06FD379C-ADF7-446E-A711-1BAF72A13D8E}" type="CELLRANGE">
+                    <a:fld id="{07A59592-ECE6-42CE-BDE1-D34F5602DCAF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1703,7 +1703,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8F65901D-33A7-4937-B7F8-307B8946E23D}" type="CELLRANGE">
+                    <a:fld id="{72F8F348-193E-47D3-A53D-F485D3B9FCD0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1742,7 +1742,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D15EB01E-3683-4CDE-AE37-CD6BDD1DA7F7}" type="CELLRANGE">
+                    <a:fld id="{8F2702AF-32A8-42CA-BF80-1C30523C3260}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1781,7 +1781,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F713AC40-630F-4385-B797-516E352FC5B4}" type="CELLRANGE">
+                    <a:fld id="{18080B75-4AD6-496F-B30F-9FA54D9217ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1820,7 +1820,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E6F7EB69-E147-416A-8B91-4C52AA0F5066}" type="CELLRANGE">
+                    <a:fld id="{3065F272-08AD-4602-960C-9D822044887F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1859,7 +1859,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACFF80CA-6F14-4BC4-8B7A-E35AA18A0D90}" type="CELLRANGE">
+                    <a:fld id="{7E60897D-C1A2-48D5-AA87-3CF50D2F4FF9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1898,7 +1898,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8AE00146-00C2-4F8A-93D5-55CF7F0B1D0D}" type="CELLRANGE">
+                    <a:fld id="{1AD518F2-5A0B-4F76-B81A-420CB7688056}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1937,7 +1937,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5ADCECC2-119E-44EB-B238-C57758852BD6}" type="CELLRANGE">
+                    <a:fld id="{75135BC9-EDF0-4F85-B244-F50112645154}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1976,7 +1976,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0233C210-F2EF-4843-AA71-212958B26F67}" type="CELLRANGE">
+                    <a:fld id="{7F193206-EE45-438C-AF99-0A364DDB5AE7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2015,7 +2015,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{057D2024-D463-483E-B5DD-9EBD2EB60D4A}" type="CELLRANGE">
+                    <a:fld id="{3F17D817-3C48-4E45-936B-9B740A9CBEC8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2054,7 +2054,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{022DB5B7-E0AC-4719-B6E6-9144958C899B}" type="CELLRANGE">
+                    <a:fld id="{97B33074-B5E2-4EAE-937B-E2C6815AB630}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2093,7 +2093,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB1FF0C0-03BD-4B8A-A127-C6833E94F536}" type="CELLRANGE">
+                    <a:fld id="{87F51FF2-2878-4E2C-87CF-FA178A68CAF2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2132,7 +2132,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7ED8C507-D4D2-4AA9-8C22-FBB368493819}" type="CELLRANGE">
+                    <a:fld id="{D8471459-2AB8-4BB0-815E-50CD3C8CB1A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2171,7 +2171,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E4D6BDA-A42B-4848-91B9-9F11A397C66C}" type="CELLRANGE">
+                    <a:fld id="{4A0C077F-ADB6-456F-8054-EBCD1AC7048B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2210,7 +2210,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2C2C301A-C0DF-4BE8-B4F4-4BACC53B1D9A}" type="CELLRANGE">
+                    <a:fld id="{4E434B42-2D05-4616-963D-C6BCB6ADE987}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2249,7 +2249,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2D76E77-779E-4750-8BA5-7617C14CB67A}" type="CELLRANGE">
+                    <a:fld id="{36FB75E4-2E1C-4F84-9708-DCF7307F9910}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2288,7 +2288,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D42BFD1-AE47-4C14-929E-F06626EF7557}" type="CELLRANGE">
+                    <a:fld id="{5D3AFB82-C6F0-4489-87DE-5BDD239CB3FD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2321,7 +2321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D0561612-D1D5-4A1A-B9FC-28680A6A6E52}" type="CELLRANGE">
+                    <a:fld id="{257BE3C5-1000-4169-86D9-1AC498B5D99F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2361,7 +2361,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FEC9CF3C-1894-4291-BC3F-B6BDEFEFEB53}" type="CELLRANGE">
+                    <a:fld id="{9CEB2E97-D85D-40BA-BAC4-5F2A54E0B12B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2400,7 +2400,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F981831-426B-4486-BBF2-F36AE0DA06DE}" type="CELLRANGE">
+                    <a:fld id="{0E593307-9AEF-44D4-ABBF-4284B83A9A38}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2439,7 +2439,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FE660552-0FBC-457E-9893-B1D1DDE4757A}" type="CELLRANGE">
+                    <a:fld id="{15E8B263-CA92-4AE3-84DE-CFB4EC0A1918}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2478,7 +2478,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B6FBD913-2AE3-4ED9-AFA4-8C11A6A68B61}" type="CELLRANGE">
+                    <a:fld id="{CAF88ADE-D047-4DEB-8824-70158BA5D9FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2517,7 +2517,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BFB5D207-E259-4DDE-B1A8-6C0F03C25CF3}" type="CELLRANGE">
+                    <a:fld id="{2639285D-055F-4F36-82EC-1777D089B60C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2556,7 +2556,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2D7BC340-98A0-468D-8274-0E581E2695DB}" type="CELLRANGE">
+                    <a:fld id="{6F81A704-CC0A-4E05-BF5F-3E9FA7C631AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2595,7 +2595,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0E41D2CA-A254-4D95-9BEA-0B8E6F278324}" type="CELLRANGE">
+                    <a:fld id="{2E28ADF2-AD94-4589-AC3F-D8AAB5A0BEB7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3443,7 +3443,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D345D825-5216-42AA-9DD4-4ED49D806AED}" type="CELLRANGE">
+                    <a:fld id="{47651BDF-7DDC-4341-8D4D-74FE642EE87D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3483,7 +3483,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99607150-6F8B-4939-9B95-0EC25F1EB446}" type="CELLRANGE">
+                    <a:fld id="{D0790585-29A6-4A1B-A285-E02CA86C2E26}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3522,7 +3522,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A61D164A-3F17-4A19-AF32-6E38187D77DE}" type="CELLRANGE">
+                    <a:fld id="{92306152-CCB1-44C4-92E3-C73E6B5681AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3561,7 +3561,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{312D841D-5279-4DE6-BBE9-4259FF8E3083}" type="CELLRANGE">
+                    <a:fld id="{8817012A-2428-4687-A8AF-37CD468213A3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3600,7 +3600,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96658DFB-FE24-45A0-A2B4-B7AC80B93E26}" type="CELLRANGE">
+                    <a:fld id="{FA001F88-545F-464F-9E55-982B7CAC7E79}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3633,7 +3633,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C0475EB4-DA3F-426F-BC10-573965B2AC30}" type="CELLRANGE">
+                    <a:fld id="{0DDFBA9E-AC43-46C6-9244-2D001DB117BC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3667,7 +3667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{331C85E5-F6EF-4AB8-AF76-68A153EB2492}" type="CELLRANGE">
+                    <a:fld id="{84DEB760-A6AA-409B-8899-708C622F75FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3707,7 +3707,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1DE02281-D765-439F-A424-559BE31922A7}" type="CELLRANGE">
+                    <a:fld id="{51F26E58-84E8-4C13-878B-03573109E117}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3746,7 +3746,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63A49D16-49B3-45E8-9B13-A8AB0C42D249}" type="CELLRANGE">
+                    <a:fld id="{48163A94-94A4-4816-822B-088BDAF2B658}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3785,7 +3785,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6E0F8F93-90DA-4068-93E7-B1BCEBE7F116}" type="CELLRANGE">
+                    <a:fld id="{C792E95F-06C7-4327-9C52-11CDC614B57F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3818,7 +3818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A1AD3B3-E11A-44D9-8E79-AC2140981071}" type="CELLRANGE">
+                    <a:fld id="{09D3B707-3B3A-4B27-BE2A-69F381841743}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3858,7 +3858,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48F21E26-2C4C-4AB8-A0F4-5F12F0B036FD}" type="CELLRANGE">
+                    <a:fld id="{E28654DA-3D1B-48B9-929A-3958FFCCF345}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3897,7 +3897,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC1BF64C-3AC6-483B-98FB-B017FA43C687}" type="CELLRANGE">
+                    <a:fld id="{D7E8002F-1E10-4032-A0A7-03B292BEA6AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4565,7 +4565,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{34912FF8-ED37-41B0-878C-DED36E434DC2}" type="CELLRANGE">
+                    <a:fld id="{2C8DBE8B-1AF5-45E7-A898-05122D669586}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4604,7 +4604,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33B580A6-7516-4A77-A4FD-6AC6FAED54FA}" type="CELLRANGE">
+                    <a:fld id="{2462C11D-9477-46D9-9A95-4B6E5CF71A5D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4643,7 +4643,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9FF50303-462A-499E-A772-F257F22DE453}" type="CELLRANGE">
+                    <a:fld id="{FD40A6A4-9C36-4B34-AE9C-CED72C98CBB6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4682,7 +4682,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{135B34F8-5A35-43AE-A9A7-BBFE2CEFB158}" type="CELLRANGE">
+                    <a:fld id="{02BDCE7F-6CAB-4834-AC14-05B3AC56C9C1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4715,7 +4715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3E927DB-851B-465F-94BD-D143EE189E2C}" type="CELLRANGE">
+                    <a:fld id="{4F8A2060-1905-4515-BC06-52E0FDED5122}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4755,7 +4755,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45B2067A-B2DF-4226-8ABB-FEBDBDFC8CC9}" type="CELLRANGE">
+                    <a:fld id="{B16AB96F-9023-417D-9A30-26C9B16CEEAB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4788,7 +4788,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1F94B47-6839-4E16-8620-9E46BC9FA39D}" type="CELLRANGE">
+                    <a:fld id="{677145BC-E732-4D8E-A4A9-D0D522000A16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4828,7 +4828,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD27DA6B-C973-4705-AC6B-FA523192DBA4}" type="CELLRANGE">
+                    <a:fld id="{F1BCC832-D204-43D4-A73D-B4F6FC9F407D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4861,7 +4861,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{30FE3C95-A4EA-44B9-BD76-ECFF2BCC1225}" type="CELLRANGE">
+                    <a:fld id="{0649DC45-FCCC-42F2-83AC-DACCD70367BD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4895,7 +4895,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5DA99992-391C-4671-A268-31586EABAF95}" type="CELLRANGE">
+                    <a:fld id="{13A4CC8C-212D-4350-820A-24A7EEEF5501}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4935,7 +4935,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{14D0CA6F-5F49-449B-89B8-B0FE694E92FC}" type="CELLRANGE">
+                    <a:fld id="{E3295CBD-B7BA-42D0-A246-3E0ED1A6C518}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4974,7 +4974,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C952BE25-8D9E-468A-B36F-317F2A9925A2}" type="CELLRANGE">
+                    <a:fld id="{50042440-A9EE-4CD9-96B5-C7E5775B9D83}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5007,7 +5007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6008C13C-6DD7-4B6F-B75A-D9C75889D813}" type="CELLRANGE">
+                    <a:fld id="{430735DD-BEAC-40ED-8AD8-04D97203DFD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5047,7 +5047,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{21963DFE-516F-4133-A8EE-B48AD60A898D}" type="CELLRANGE">
+                    <a:fld id="{12B795A8-A8C5-47F6-A5AC-A4E09C5B60DC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5086,7 +5086,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A7CBCEAA-0A18-4CBE-A3B5-ECA2ABB097B3}" type="CELLRANGE">
+                    <a:fld id="{D6D0537E-2DD0-441C-AB0B-4CCE1142E0FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5125,7 +5125,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8BCF92F-12CE-4B3A-A060-732EE2F8F2F7}" type="CELLRANGE">
+                    <a:fld id="{FF7A8F78-4949-469F-94E3-7DD41E1009C9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5164,7 +5164,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA40A04E-D5E5-4AF3-849E-E74330D0DFBC}" type="CELLRANGE">
+                    <a:fld id="{4B3E1764-2A8D-491C-8FE9-E7033D654634}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5203,7 +5203,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9816B491-13D3-471F-BCE6-1EB1D65A0AB9}" type="CELLRANGE">
+                    <a:fld id="{9415B15A-4DCD-4025-89AF-CA9A059675E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5242,7 +5242,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EC41D48-6922-4985-920A-85B343EDFC05}" type="CELLRANGE">
+                    <a:fld id="{FB59771D-23E3-49E1-B7CF-29C925D9F529}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5281,7 +5281,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CC8C2C4A-B83F-4911-B144-00BDBFE45B85}" type="CELLRANGE">
+                    <a:fld id="{F326B9DF-715E-4FCC-8F74-A3DEBC7F0418}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5314,7 +5314,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1F512D5-96F9-43FC-B9CF-008F2570C35E}" type="CELLRANGE">
+                    <a:fld id="{518C3C9F-8205-4026-BC17-0FE3E283672D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5347,7 +5347,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0196B11D-5D0F-44D4-BE13-1C52085FF55C}" type="CELLRANGE">
+                    <a:fld id="{89993114-EB6D-4729-8599-08D4A331FE1C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5387,7 +5387,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D45E395A-AE4A-4C6A-BA67-BE30807DEEF8}" type="CELLRANGE">
+                    <a:fld id="{6CBA4DF3-20F8-4130-BE1C-0BB762D5D743}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5753,7 +5753,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A2B58E87-945B-4EF6-9FB7-5967C233055F}" type="CELLRANGE">
+                    <a:fld id="{B2C9DED2-13A3-4651-A8C3-A0BC41CE5603}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5792,7 +5792,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{060AD17A-9542-446E-BFCB-BC05552151E6}" type="CELLRANGE">
+                    <a:fld id="{9E741FC0-9FB8-4655-864D-166AE3BC440A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5831,7 +5831,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20B21688-BEF2-4D19-AB90-FE3363E04FDC}" type="CELLRANGE">
+                    <a:fld id="{8CDEA7B8-2FDC-427B-B74C-DE1F6F57B29E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5870,7 +5870,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A81545E5-3761-4686-B8AC-91F68C562284}" type="CELLRANGE">
+                    <a:fld id="{124ADC02-F0BE-4CA2-AE94-2C06D71B8601}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5903,7 +5903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BB8BAD6-3AFA-4398-8CDB-EFDD23A7F687}" type="CELLRANGE">
+                    <a:fld id="{DE3AFB44-700F-4306-B354-A5852DF51B46}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5937,7 +5937,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3F495C0-34EC-4006-AC91-E0ABC957DB91}" type="CELLRANGE">
+                    <a:fld id="{8089FD44-AF16-438E-812E-BCB7FF26642C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5977,7 +5977,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{02CD6F01-2180-48CC-996E-CE6324E2CCBD}" type="CELLRANGE">
+                    <a:fld id="{FE3FFA81-CD28-47A7-B225-0BE65DBBFF7F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6016,7 +6016,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EA1DD2A-042C-438D-95B3-6D06BA0187A1}" type="CELLRANGE">
+                    <a:fld id="{0979CBF3-EAAC-4ACE-A701-E2B53FDDAB3E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6055,7 +6055,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{45FFB04A-1A92-4B7A-BD90-CB115C2D61F7}" type="CELLRANGE">
+                    <a:fld id="{C3E0510E-14D0-4EDD-BDB4-467EA714599E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6088,7 +6088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{16A4B285-DEB9-4AEF-8587-2241513875B7}" type="CELLRANGE">
+                    <a:fld id="{75585E20-518F-45EB-9921-D2709808F63C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6128,7 +6128,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20C102A5-CBA0-45E8-93A4-55A8DCBCFCCC}" type="CELLRANGE">
+                    <a:fld id="{502F9B7F-3F03-4BED-827A-947065388E5C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6167,7 +6167,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{10011CA6-31CC-4985-A9CC-1A528D5BD3A8}" type="CELLRANGE">
+                    <a:fld id="{806F9845-DF2A-43CB-8E45-BB845B546107}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6206,7 +6206,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87CFE8A8-5114-40EB-87C5-7EC91346832F}" type="CELLRANGE">
+                    <a:fld id="{B64BD16E-3F27-4609-9AFF-308F35756EEF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6245,7 +6245,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AD18A38-761A-47CE-90F6-7116484084E9}" type="CELLRANGE">
+                    <a:fld id="{3A96F716-BF83-45F8-803D-6EB6A2F36ECE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6284,7 +6284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FB759AD-67E5-4020-A78F-83D69AEB4E65}" type="CELLRANGE">
+                    <a:fld id="{B74C7085-D28C-4920-A51F-3D7960182811}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6317,7 +6317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9C2DDD4A-2E3A-49C6-B89F-B94E66A766A1}" type="CELLRANGE">
+                    <a:fld id="{EC44DF25-49C8-4FC3-ABE8-FCCCF5CC0008}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6351,7 +6351,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9CA40072-BCC7-420F-A17D-6B3D0F245BB0}" type="CELLRANGE">
+                    <a:fld id="{AE1C3C78-251A-445D-AAD1-1DAEDEA3F5A6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6385,7 +6385,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{751E2F94-06B5-49A6-B389-6F42BBABCA1D}" type="CELLRANGE">
+                    <a:fld id="{C39C131F-08E1-424F-9A17-2025FF700471}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6425,7 +6425,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3C241F79-B2B1-4A0B-8E76-BA0B6735FB32}" type="CELLRANGE">
+                    <a:fld id="{D4223A46-47DA-4F15-9A05-32C444BA1BE6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6464,7 +6464,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8C6BD48B-FA95-4AAC-BEB0-4358D807F7C6}" type="CELLRANGE">
+                    <a:fld id="{28B5E279-9110-4F9E-B1DD-ECCD9C36C859}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6503,7 +6503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8313CA6-183C-4AA5-A74A-32D36A5E98B8}" type="CELLRANGE">
+                    <a:fld id="{CBC12258-7A6F-4CB8-ABCF-194329306E3B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6542,7 +6542,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CE2C3245-6CBA-4217-9A0A-C5BDB2377803}" type="CELLRANGE">
+                    <a:fld id="{66C41CC2-7986-424F-9C5C-29454979221E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6581,7 +6581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61A3B2F9-6323-4061-A372-46F262CE6916}" type="CELLRANGE">
+                    <a:fld id="{DAF7C0E9-E89F-4AA3-BF09-AAC1FD2C1C0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6614,7 +6614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{42F8F483-2AE3-4E63-9F69-543ECDFFA7A6}" type="CELLRANGE">
+                    <a:fld id="{24C9A392-FB6B-40B4-8FA1-10A11DBF22AF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6648,7 +6648,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3E278E54-9F30-4A6F-B0EA-E7903E40AC5A}" type="CELLRANGE">
+                    <a:fld id="{AEA28CC1-85C9-478B-B558-58A956B15F14}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6688,7 +6688,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5788C984-6622-4F67-887D-6D31D936EC43}" type="CELLRANGE">
+                    <a:fld id="{49F84EE5-D6B6-4DC1-9F9A-39482BB5F3AD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6727,7 +6727,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{81A68481-3E51-41E6-8ACC-BAFA9AE25618}" type="CELLRANGE">
+                    <a:fld id="{41C891A5-3C32-471A-8FD4-5FC1C8CFA7C0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6766,7 +6766,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48501750-C4D5-4BBD-A5D9-A8F4C34E61F9}" type="CELLRANGE">
+                    <a:fld id="{0C517347-AFED-40E8-950D-B3296E19CE23}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7527,7 +7527,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E555055-1BFD-4E17-93D3-68FC4C4377FC}" type="CELLRANGE">
+                    <a:fld id="{AF3AE966-6237-4835-A228-AA2ACA333181}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7560,7 +7560,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8A21383D-C6BD-4989-9FEC-853FD0BB0BD2}" type="CELLRANGE">
+                    <a:fld id="{311ADBDD-C6DD-4295-8398-79F35023E5BA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7593,7 +7593,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3F20BDCC-B6F5-442D-BBB8-92060CB7B8EC}" type="CELLRANGE">
+                    <a:fld id="{16DBAA27-6512-421E-A80E-327AE32F74F7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12261,14 +12261,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" filterMode="1"/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:CD71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="I51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC84" sqref="AC84"/>
+      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12829,7 +12829,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="2:82" hidden="1">
+    <row r="6" spans="2:82">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -13052,7 +13052,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="2:82" hidden="1">
+    <row r="7" spans="2:82">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="2:82" hidden="1">
+    <row r="8" spans="2:82">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:82" hidden="1">
+    <row r="9" spans="2:82">
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>4.625</v>
       </c>
     </row>
-    <row r="10" spans="2:82" hidden="1">
+    <row r="10" spans="2:82">
       <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>4.625</v>
       </c>
     </row>
-    <row r="11" spans="2:82" hidden="1">
+    <row r="11" spans="2:82">
       <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
@@ -14077,7 +14077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:82" hidden="1">
+    <row r="12" spans="2:82">
       <c r="B12" s="1" t="s">
         <v>26</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="2:82" hidden="1">
+    <row r="13" spans="2:82">
       <c r="B13" s="1" t="s">
         <v>26</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:82" hidden="1">
+    <row r="14" spans="2:82">
       <c r="B14" s="1" t="s">
         <v>26</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:82" hidden="1">
+    <row r="15" spans="2:82">
       <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
@@ -14969,7 +14969,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="2:82" hidden="1">
+    <row r="16" spans="2:82">
       <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
@@ -15147,7 +15147,7 @@
         <v>5.125</v>
       </c>
     </row>
-    <row r="17" spans="2:82" hidden="1">
+    <row r="17" spans="2:82">
       <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
@@ -15322,7 +15322,7 @@
         <v>6.1669999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:82" hidden="1">
+    <row r="18" spans="2:82">
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
@@ -15545,7 +15545,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="2:82" hidden="1">
+    <row r="19" spans="2:82">
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
@@ -15768,7 +15768,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:82" hidden="1">
+    <row r="20" spans="2:82">
       <c r="B20" s="1" t="s">
         <v>26</v>
       </c>
@@ -15991,7 +15991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="2:82" hidden="1">
+    <row r="21" spans="2:82">
       <c r="B21" s="1" t="s">
         <v>26</v>
       </c>
@@ -16214,7 +16214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="2:82" hidden="1">
+    <row r="22" spans="2:82">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="2:82" hidden="1">
+    <row r="23" spans="2:82">
       <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
@@ -16663,7 +16663,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="2:82" hidden="1">
+    <row r="24" spans="2:82">
       <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:82" hidden="1">
+    <row r="25" spans="2:82">
       <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="2:82" hidden="1">
+    <row r="26" spans="2:82">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="2:82" hidden="1">
+    <row r="27" spans="2:82">
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
@@ -17564,7 +17564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="2:82" hidden="1">
+    <row r="28" spans="2:82">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -17790,7 +17790,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="2:82" hidden="1">
+    <row r="29" spans="2:82">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
@@ -18016,7 +18016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:82" hidden="1">
+    <row r="30" spans="2:82">
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
@@ -18242,7 +18242,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:82" hidden="1">
+    <row r="31" spans="2:82">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -18468,7 +18468,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:82" hidden="1">
+    <row r="32" spans="2:82">
       <c r="B32" s="1" t="s">
         <v>26</v>
       </c>
@@ -18694,7 +18694,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:80" hidden="1">
+    <row r="33" spans="2:80">
       <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
@@ -18923,7 +18923,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="2:80" hidden="1">
+    <row r="34" spans="2:80">
       <c r="B34" s="1" t="s">
         <v>26</v>
       </c>
@@ -19152,7 +19152,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="2:80" hidden="1">
+    <row r="35" spans="2:80">
       <c r="B35" s="1" t="s">
         <v>26</v>
       </c>
@@ -19390,7 +19390,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:80" hidden="1">
+    <row r="36" spans="2:80">
       <c r="B36" s="1" t="s">
         <v>26</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="2:80" hidden="1">
+    <row r="37" spans="2:80">
       <c r="B37" s="1" t="s">
         <v>26</v>
       </c>
@@ -19842,7 +19842,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="2:80" hidden="1">
+    <row r="38" spans="2:80">
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="2:80" hidden="1">
+    <row r="39" spans="2:80">
       <c r="B39" s="1" t="s">
         <v>26</v>
       </c>
@@ -20291,7 +20291,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:80" hidden="1">
+    <row r="40" spans="2:80">
       <c r="B40" s="1" t="s">
         <v>26</v>
       </c>
@@ -20517,7 +20517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:80" hidden="1">
+    <row r="41" spans="2:80">
       <c r="B41" s="1" t="s">
         <v>26</v>
       </c>
@@ -20743,7 +20743,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:80" hidden="1">
+    <row r="42" spans="2:80">
       <c r="B42" s="1" t="s">
         <v>26</v>
       </c>
@@ -20972,7 +20972,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="2:80" hidden="1">
+    <row r="43" spans="2:80">
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
@@ -21201,7 +21201,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:80" hidden="1">
+    <row r="44" spans="2:80">
       <c r="B44" s="1" t="s">
         <v>26</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:80" hidden="1">
+    <row r="45" spans="2:80">
       <c r="B45" s="1" t="s">
         <v>26</v>
       </c>
@@ -21659,7 +21659,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:80" hidden="1">
+    <row r="46" spans="2:80">
       <c r="B46" s="1" t="s">
         <v>26</v>
       </c>
@@ -21885,7 +21885,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:80" hidden="1">
+    <row r="47" spans="2:80">
       <c r="B47" s="1" t="s">
         <v>26</v>
       </c>
@@ -22123,7 +22123,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:80" hidden="1">
+    <row r="48" spans="2:80">
       <c r="B48" s="1" t="s">
         <v>26</v>
       </c>
@@ -22361,7 +22361,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:80" hidden="1">
+    <row r="49" spans="2:80">
       <c r="B49" s="1" t="s">
         <v>26</v>
       </c>
@@ -22599,7 +22599,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="2:80" hidden="1">
+    <row r="50" spans="2:80">
       <c r="B50" s="1" t="s">
         <v>26</v>
       </c>
@@ -22837,7 +22837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:80" hidden="1">
+    <row r="51" spans="2:80">
       <c r="B51" s="1" t="s">
         <v>26</v>
       </c>
@@ -23075,7 +23075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="2:80" hidden="1">
+    <row r="52" spans="2:80">
       <c r="B52" s="1" t="s">
         <v>26</v>
       </c>
@@ -23313,7 +23313,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:80" hidden="1">
+    <row r="53" spans="2:80">
       <c r="B53" s="1" t="s">
         <v>26</v>
       </c>
@@ -23548,7 +23548,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:80" hidden="1">
+    <row r="54" spans="2:80">
       <c r="B54" s="1" t="s">
         <v>26</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:80" hidden="1">
+    <row r="55" spans="2:80">
       <c r="B55" s="1" t="s">
         <v>26</v>
       </c>
@@ -24024,7 +24024,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="2:80" hidden="1">
+    <row r="56" spans="2:80">
       <c r="B56" s="1" t="s">
         <v>26</v>
       </c>
@@ -24250,7 +24250,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="2:80" hidden="1">
+    <row r="57" spans="2:80">
       <c r="B57" s="1" t="s">
         <v>26</v>
       </c>
@@ -24964,7 +24964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="2:80" hidden="1">
+    <row r="60" spans="2:80">
       <c r="B60" s="1" t="s">
         <v>26</v>
       </c>
@@ -25202,7 +25202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:80" hidden="1">
+    <row r="61" spans="2:80">
       <c r="B61" s="1" t="s">
         <v>26</v>
       </c>
@@ -25440,7 +25440,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="2:80" hidden="1">
+    <row r="62" spans="2:80">
       <c r="B62" s="1" t="s">
         <v>26</v>
       </c>
@@ -25678,7 +25678,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="2:80" hidden="1">
+    <row r="63" spans="2:80">
       <c r="B63" s="1" t="s">
         <v>26</v>
       </c>
@@ -26392,7 +26392,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:80" hidden="1">
+    <row r="66" spans="2:80">
       <c r="B66" s="1" t="s">
         <v>26</v>
       </c>
@@ -26630,7 +26630,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="67" spans="2:80" hidden="1">
+    <row r="67" spans="2:80">
       <c r="B67" s="1" t="s">
         <v>26</v>
       </c>
@@ -26868,7 +26868,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:80" hidden="1">
+    <row r="68" spans="2:80">
       <c r="B68" s="1" t="s">
         <v>26</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:80" hidden="1">
+    <row r="69" spans="2:80">
       <c r="B69" s="1" t="s">
         <v>26</v>
       </c>
@@ -27341,7 +27341,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="2:80" hidden="1">
+    <row r="70" spans="2:80">
       <c r="B70" s="1" t="s">
         <v>26</v>
       </c>
@@ -27818,16 +27818,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B5:CB71">
-    <filterColumn colId="21">
-      <filters>
-        <filter val="P11C-VP"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="B25:CB70">
-      <sortCondition ref="AB5:AB71"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="B5:CB71"/>
   <sortState ref="B6:CB71">
     <sortCondition descending="1" ref="B6"/>
   </sortState>

--- a/R1 HINO TRUCK DATABASE - Irfan B. Satria.xlsx
+++ b/R1 HINO TRUCK DATABASE - Irfan B. Satria.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2751" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2823" uniqueCount="308">
   <si>
     <t>Naming</t>
   </si>
@@ -881,6 +881,78 @@
   </si>
   <si>
     <t>P11C</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>LIGHT TRUCK E4</t>
+  </si>
+  <si>
+    <t>XZU302L</t>
+  </si>
+  <si>
+    <t>XZU302LN</t>
+  </si>
+  <si>
+    <t>N04C</t>
+  </si>
+  <si>
+    <t>N04C-VC</t>
+  </si>
+  <si>
+    <t>XZU342LC</t>
+  </si>
+  <si>
+    <t>XZU342LM</t>
+  </si>
+  <si>
+    <t>XZU342LH</t>
+  </si>
+  <si>
+    <t>MEDIUM TRUCK E4</t>
+  </si>
+  <si>
+    <t>FC9JL7A</t>
+  </si>
+  <si>
+    <t>J05E-TY</t>
+  </si>
+  <si>
+    <t>J05E</t>
+  </si>
+  <si>
+    <t>FG8JP7A</t>
+  </si>
+  <si>
+    <t>J08E-WF</t>
+  </si>
+  <si>
+    <t>FL8JW7A</t>
+  </si>
+  <si>
+    <t>J08E-WD</t>
+  </si>
+  <si>
+    <t>FM8JR7A</t>
+  </si>
+  <si>
+    <t>SG1AF7B</t>
+  </si>
+  <si>
+    <t>A09C</t>
+  </si>
+  <si>
+    <t>A09C-UP</t>
+  </si>
+  <si>
+    <t>FM1AR7 CARGO</t>
+  </si>
+  <si>
+    <t>FM1AL7D DUMP</t>
+  </si>
+  <si>
+    <t>FM1AL7B T/H</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1429,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{63FFE187-218C-4CB4-9DCE-5A9AC129D80D}" type="CELLRANGE">
+                    <a:fld id="{58F03269-7BFF-45CA-9816-1E42FECC0388}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1396,7 +1468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4A38180-4E62-4BD9-B58D-0FB289C18127}" type="CELLRANGE">
+                    <a:fld id="{9A10F616-9E8C-4128-86E0-C3EA608F459F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1429,7 +1501,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BE120DD-E84A-405B-B3BE-46DDBD0C66EA}" type="CELLRANGE">
+                    <a:fld id="{AB765479-F7EF-4B58-8CE2-09B2E5457F85}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1469,7 +1541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{011F1D82-9F0F-4A84-A619-E76CA3622791}" type="CELLRANGE">
+                    <a:fld id="{26A015A5-5F93-4748-ADBC-FD18D29497D6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1508,7 +1580,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5475451D-ED29-4D03-A3A7-2A7C092BEC14}" type="CELLRANGE">
+                    <a:fld id="{9D1E2E46-3CB9-4A78-9C57-F93A3FCD5F1B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1547,7 +1619,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8DB73597-8E70-4182-BDC7-903BF68C12C6}" type="CELLRANGE">
+                    <a:fld id="{F3E770E3-C2D6-4600-B58D-49A399139C07}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1586,7 +1658,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A528F31C-B47D-4150-ADAD-D33DAC1FD96D}" type="CELLRANGE">
+                    <a:fld id="{F6F57ACC-2EFA-401B-A986-E868A4521792}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1625,7 +1697,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F92288FD-32EB-4AFF-902E-826AC55B65C7}" type="CELLRANGE">
+                    <a:fld id="{85BC2D3A-F44C-4731-9009-C8859DCBA9A8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1664,7 +1736,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D7B2155-C6DE-48FE-8FF5-5AEC98A48C72}" type="CELLRANGE">
+                    <a:fld id="{0E8709DD-2F00-4A26-8A00-B387BAF32735}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1703,7 +1775,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BADAB030-E439-4C3E-B75C-60BD47951006}" type="CELLRANGE">
+                    <a:fld id="{FE6EFF2E-0205-4D1D-8D53-D7B78B6D0CA6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1742,7 +1814,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9E438969-0AB3-4BAA-9AC0-E9B4CA09B269}" type="CELLRANGE">
+                    <a:fld id="{F68A8220-8A76-465C-8C2D-4B005FC7291E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1781,7 +1853,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BBD230FA-387A-475D-817D-0615DF66729C}" type="CELLRANGE">
+                    <a:fld id="{DB30D608-D84C-44B7-A183-0E08345B37D8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1820,7 +1892,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{825A0B92-D0FC-4529-B5DF-8E536C80DEEE}" type="CELLRANGE">
+                    <a:fld id="{7EC92591-6B4D-46D8-BC24-A850C31316A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1859,7 +1931,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B03F437-E095-45EE-AFBC-738DCA3681F2}" type="CELLRANGE">
+                    <a:fld id="{2FE1E23D-15C1-4ABC-B31A-BEBA2034929F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1898,7 +1970,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A5AD1053-7D6F-474E-95A4-911783D27DBD}" type="CELLRANGE">
+                    <a:fld id="{D6C86AC4-5882-4905-BCA3-FDDAD0683E77}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1937,7 +2009,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{84A65BB6-F517-49D4-BD50-20288040CA90}" type="CELLRANGE">
+                    <a:fld id="{43D09F39-9C0E-4C14-BB65-552DB37EEED6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1976,7 +2048,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B5C7481B-22FA-4C82-93BE-4111A1536E1C}" type="CELLRANGE">
+                    <a:fld id="{22AF615A-2FAF-4B9E-91BB-1CF2CF7808C6}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2015,7 +2087,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1C06E1A0-934A-4ED2-81DC-4E81D9DB898A}" type="CELLRANGE">
+                    <a:fld id="{AF5DD522-30D5-40E2-85F4-7CA3930F3FC5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2054,7 +2126,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7324D37-5056-4DA3-9A02-D2F74EDAB56C}" type="CELLRANGE">
+                    <a:fld id="{EA04D0E5-41C8-45D2-8227-2E837BAF7DBF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2093,7 +2165,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A01F7B66-7463-4F16-A20E-7362CCA0AEF4}" type="CELLRANGE">
+                    <a:fld id="{45653EE2-C86B-4C9B-A9CD-3B8017BBA459}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2132,7 +2204,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FF80312D-805A-40EB-AF7D-7341C5AC11A0}" type="CELLRANGE">
+                    <a:fld id="{DFC27729-B868-49FE-A7D9-73C93DFFBA9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2171,7 +2243,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D4EDEE13-F609-4043-B46F-D5568FA5F5AE}" type="CELLRANGE">
+                    <a:fld id="{EFE76AD3-6226-4591-9B70-805117630F19}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2210,7 +2282,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4D359FB6-03E8-4091-997E-620AD88ADA77}" type="CELLRANGE">
+                    <a:fld id="{E1D6472F-7DD3-4EA7-BF36-6D706E41DE40}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2249,7 +2321,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D881CC22-B1CE-42C4-AE20-CB4381C1A615}" type="CELLRANGE">
+                    <a:fld id="{FA9DC285-5346-4196-B2D0-A1E9A1E68314}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2288,7 +2360,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{039C6EC5-7BB0-4030-AB79-ABDEF2014AFE}" type="CELLRANGE">
+                    <a:fld id="{9C05038B-83FE-4313-9BD8-9A5806AD1CD4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2321,7 +2393,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{29D16684-36A4-4B38-84AE-05599A61D4D1}" type="CELLRANGE">
+                    <a:fld id="{3DE291CE-BCD3-4663-A3E8-1F904600ADBC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2361,7 +2433,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B8984810-86CE-401D-BCB9-C6CBD6D318F5}" type="CELLRANGE">
+                    <a:fld id="{60A7CEE4-F4E3-4FAE-A156-2CB7BA1D04E5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2400,7 +2472,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{77E0E3F4-BBF0-4A51-B866-975AEE50CF56}" type="CELLRANGE">
+                    <a:fld id="{9259AE28-87F1-4D57-99B2-15E67AF36FE7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2439,7 +2511,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ECBEDDD2-780D-4C51-99EF-2C41F6ACAC47}" type="CELLRANGE">
+                    <a:fld id="{A8209C75-5DB5-4F2A-8FAD-20E2A45BD745}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2478,7 +2550,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB583A36-91F1-4362-99A6-0781CB5596AB}" type="CELLRANGE">
+                    <a:fld id="{755A298C-A320-4AAD-98AF-F9EDFFD50E73}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2517,7 +2589,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D2DC98AD-36ED-4A29-A12B-46C77660F388}" type="CELLRANGE">
+                    <a:fld id="{2986E0A5-A96E-4813-941A-2D9705C94A18}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2556,7 +2628,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7754327F-7552-4176-8E3C-EA81774B971F}" type="CELLRANGE">
+                    <a:fld id="{D91605A8-F8F2-481A-A0DA-A26A30B93435}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2595,7 +2667,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C3F7AA0F-19D3-4506-9B85-33D3F88F3887}" type="CELLRANGE">
+                    <a:fld id="{28EF8F0F-BC0C-4ADF-9DF3-BAF45A4B124A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3443,7 +3515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C091E3D-96C8-4D84-98BA-F7B77F1EAED4}" type="CELLRANGE">
+                    <a:fld id="{9EEE56AE-ADC9-4CDA-8E12-670EFC103404}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3483,7 +3555,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F8FBCB0D-03FE-4207-B441-762A77646DE7}" type="CELLRANGE">
+                    <a:fld id="{6890D0D6-B6E8-4A12-9AB1-9D6EF5976C9B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3522,7 +3594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CD2DEDEE-680B-470E-B074-86CD50EF8D9E}" type="CELLRANGE">
+                    <a:fld id="{3F604400-3234-4916-8FCA-A530AC609250}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3561,7 +3633,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C29CAFB4-A1BD-44DB-A91C-AC655BED3914}" type="CELLRANGE">
+                    <a:fld id="{47F93589-DA17-4D18-BA6D-89B0AE61256B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3600,7 +3672,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{18382739-064D-44B1-A3CF-901FAF1916C9}" type="CELLRANGE">
+                    <a:fld id="{885BE999-DD35-4EE2-88EB-30E0CDD49460}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3633,7 +3705,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{051F8685-BB0D-49DB-B588-3D482ABCAB2E}" type="CELLRANGE">
+                    <a:fld id="{F937A63D-DA50-425B-81D4-ECF64CE222D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3667,7 +3739,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9B1DC0EB-284C-486F-A7C2-EC754AEEBF1B}" type="CELLRANGE">
+                    <a:fld id="{D65771F4-1EBA-4FA0-9104-ACBBDB0AC58F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3707,7 +3779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48FB8086-B363-4D36-9E1C-16AD8D1B411D}" type="CELLRANGE">
+                    <a:fld id="{B5C290CB-98BF-4469-9ACA-D66C14B0554F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3746,7 +3818,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{941FFAFE-1546-4265-9F28-798F3C0DBC9C}" type="CELLRANGE">
+                    <a:fld id="{71DD2F3E-36CE-41C6-BD32-2CEA211239BE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3785,7 +3857,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{577ABAEE-90E5-4F91-8317-12EC0CCB8623}" type="CELLRANGE">
+                    <a:fld id="{00D37E18-96E8-46CF-9CA1-3DD9ABEB1B38}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3818,7 +3890,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A86EB3CE-E62B-417E-AA15-56DDBED47A69}" type="CELLRANGE">
+                    <a:fld id="{4133C100-3475-4D38-992D-899CF25C2060}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3858,7 +3930,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{592E5A0C-D683-484D-BB19-0D3E2724ECDB}" type="CELLRANGE">
+                    <a:fld id="{488C694E-4972-4015-8251-BF12EAD79CFA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3897,7 +3969,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CFA1B638-6A85-4E9C-B2FA-CDB2B86F6B9B}" type="CELLRANGE">
+                    <a:fld id="{CB37BF8A-AFD4-4E43-B364-54D23EF61C44}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4565,7 +4637,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{316BE2B1-C31E-4961-9670-6EFC25399FD0}" type="CELLRANGE">
+                    <a:fld id="{341CC892-9427-4D45-9F0B-EEB904C6FD93}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4604,7 +4676,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{876A997A-7037-471B-BB76-0E9B089C495D}" type="CELLRANGE">
+                    <a:fld id="{9200B7DE-8BEC-4CEE-AE0E-DAB2C2E12136}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4643,7 +4715,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4E45650A-113E-419E-B995-0EB338CE76EF}" type="CELLRANGE">
+                    <a:fld id="{94E9C649-0033-4738-8AEA-FAB53D079C45}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4682,7 +4754,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA1AB5ED-AFFE-42BD-9ED0-FAEBE899B81D}" type="CELLRANGE">
+                    <a:fld id="{C7FA8241-06C8-455C-AD8A-0DB9D206CF43}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4715,7 +4787,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFC7C97A-7B78-4221-81A6-E3B24A2DEA98}" type="CELLRANGE">
+                    <a:fld id="{A3015754-57DD-4D5B-90B8-98587B1361FB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4755,7 +4827,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{506AB42B-690C-429C-BE98-9B0A421E4CB6}" type="CELLRANGE">
+                    <a:fld id="{60BAC82C-D40C-4739-8587-31D5159578A1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4788,7 +4860,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3AF9BA59-EE48-480C-8E03-4B70892F019B}" type="CELLRANGE">
+                    <a:fld id="{C00F70C0-7822-46FD-8DB1-870996BFD3F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4828,7 +4900,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88674118-3A8E-49B9-9D17-2B43B9AB4402}" type="CELLRANGE">
+                    <a:fld id="{580CB9D4-33A2-4E3B-9EE5-F692A492E3B5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4861,7 +4933,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D701E2C9-2061-4582-BAEB-6AAEE6C1AE05}" type="CELLRANGE">
+                    <a:fld id="{93EC465B-6F81-4BA1-AA59-15D5A9170A86}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4895,7 +4967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1569E848-9A63-4F95-B56A-4EBB25818320}" type="CELLRANGE">
+                    <a:fld id="{6CC508EE-4391-4BB6-8EEE-F8BFD804A2AB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4935,7 +5007,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F7708A3E-AA4D-4FEC-882E-1EB223EB0524}" type="CELLRANGE">
+                    <a:fld id="{F264CE64-18B1-4518-8E0C-5546BE593875}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4974,7 +5046,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B2622F09-609E-4A5E-BD33-DD96BF41F1B9}" type="CELLRANGE">
+                    <a:fld id="{129EFD23-F61F-4DF3-9063-22FD529AF436}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5007,7 +5079,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B91A037B-7145-45AA-AE9F-C5E6FF6491D8}" type="CELLRANGE">
+                    <a:fld id="{BE09F035-3F27-4BD3-81C8-76BC669734B8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5047,7 +5119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF5D8511-B731-473E-BCB4-3EA622129C60}" type="CELLRANGE">
+                    <a:fld id="{3B9327B0-4E5B-485B-BDCC-D1785115EA57}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5086,7 +5158,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2002338C-8907-42BF-955F-5F74EE4B6470}" type="CELLRANGE">
+                    <a:fld id="{03CC6970-67F4-4F8A-8184-A21F308796F2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5125,7 +5197,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F1FB373F-EF99-4765-9725-AA1FE24E3835}" type="CELLRANGE">
+                    <a:fld id="{CE8151D9-1B0A-42C0-8A37-740365904BE2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5164,7 +5236,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{467EE326-5DAF-4285-AB74-BC9411EBBC70}" type="CELLRANGE">
+                    <a:fld id="{2D0B1270-9F3A-4EB1-9C82-3EE2694FAC35}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5203,7 +5275,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB874666-553E-47A9-AC34-EF94997F82CA}" type="CELLRANGE">
+                    <a:fld id="{1F3DB625-6B6D-4E17-B1EB-B9CB4078BDE8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5242,7 +5314,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9657DD66-33D1-492D-934C-FEEB214AAF8A}" type="CELLRANGE">
+                    <a:fld id="{E3D7412F-9CC7-4B17-9C18-063B2576E029}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5281,7 +5353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9F8D61A6-D6A2-498C-BA37-81922D517E99}" type="CELLRANGE">
+                    <a:fld id="{C95673C9-B672-48B5-9EBE-0FA6678C23E7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5314,7 +5386,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{009BFBC7-DD8F-4234-83BB-716BED1CFAC0}" type="CELLRANGE">
+                    <a:fld id="{008DC5C3-41A6-4AD1-A162-B9984FC0B146}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5347,7 +5419,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C9D60FEF-CD9E-4D2D-8C6E-5635AA2B63B8}" type="CELLRANGE">
+                    <a:fld id="{8CCABE1B-D0B7-4DF0-A2B2-4A771CEE77D2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5387,7 +5459,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AFC132A1-C860-42A3-8A6B-FFD2FBBFC315}" type="CELLRANGE">
+                    <a:fld id="{34112DE7-3EBC-494E-8D92-E3398F4AC624}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5753,7 +5825,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{668A2F39-4CE5-45AC-B8BD-A0FA582A779B}" type="CELLRANGE">
+                    <a:fld id="{6228491E-11F8-4489-B4AE-D97944B01F04}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5792,7 +5864,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{BE6CD11D-CF56-4F04-B820-014EAFA1874E}" type="CELLRANGE">
+                    <a:fld id="{2A3BB873-B37D-446A-90C8-FB93F74CB802}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5831,7 +5903,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2EAAFD87-A895-430F-8CAF-47748F0A839F}" type="CELLRANGE">
+                    <a:fld id="{93668363-5486-491B-A41B-6ECB6B39F92E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5870,7 +5942,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{983267D6-709E-4948-8885-1DF20347B648}" type="CELLRANGE">
+                    <a:fld id="{58751B58-44F0-46C3-8CF9-E190E6B49A9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5903,7 +5975,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33A820E8-F235-4578-99DA-C67110C0E5D8}" type="CELLRANGE">
+                    <a:fld id="{50C509B3-90A1-49DA-8909-C4887B3400F4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5937,7 +6009,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AC2333D-0D4F-49EE-AEB1-1BF9C720F79C}" type="CELLRANGE">
+                    <a:fld id="{0CA6EA37-A2F0-4691-884F-F8530D56C1CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5977,7 +6049,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1447F3E5-4A0F-46FB-AEB5-187619EFA475}" type="CELLRANGE">
+                    <a:fld id="{53071816-45C3-4934-9AEF-1A3A5DA91799}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6016,7 +6088,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4483F3CB-199F-440C-B414-A87D2BA5B7DF}" type="CELLRANGE">
+                    <a:fld id="{0684F942-D1F7-4C35-AB3D-558C0E6E643B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6055,7 +6127,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AE14465-82E2-445D-8E3C-F211D3F86D42}" type="CELLRANGE">
+                    <a:fld id="{19845D1C-8A5F-4BD4-82F4-CB64DB061115}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6088,7 +6160,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EFAA3B55-7AB9-4ED2-A979-94D409873DEE}" type="CELLRANGE">
+                    <a:fld id="{0FF2E331-859D-4F6B-A820-88359323A0E0}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6128,7 +6200,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A86EEB7C-2A7B-43F8-8230-01EB4F6BB512}" type="CELLRANGE">
+                    <a:fld id="{A409014B-4655-4F5D-B315-7E7E29510079}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6167,7 +6239,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{19BC3B83-C2FD-472A-BB10-8E5814A9DF70}" type="CELLRANGE">
+                    <a:fld id="{F6D2E101-B2AB-42E5-A34D-CC291FEA111C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6206,7 +6278,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AEE0FEAD-047E-4779-8288-26BBA7A463F7}" type="CELLRANGE">
+                    <a:fld id="{66A9B39A-F971-4056-95A2-720BF3D69685}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6245,7 +6317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{980148D4-FA12-43BB-9230-AF7EFA752DEA}" type="CELLRANGE">
+                    <a:fld id="{25CE26EC-89D1-4AB4-9841-93E76829E19A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6284,7 +6356,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4F44C584-7F61-4ED1-AC91-7C3670B1F0C0}" type="CELLRANGE">
+                    <a:fld id="{F5128946-1D91-463B-913A-8447677C70E4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6317,7 +6389,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A96E06A-63F3-471D-B0A2-C38AF1D59A94}" type="CELLRANGE">
+                    <a:fld id="{887CADB7-3071-4110-8712-7FB539A6159B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6351,7 +6423,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ACDC9993-1BA9-408B-A6EC-E97266C255A8}" type="CELLRANGE">
+                    <a:fld id="{4AB7F610-E1F7-4611-8710-6DDA1A8D13DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6385,7 +6457,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3169A0C-E77E-49C1-9FDB-F6E4393679C6}" type="CELLRANGE">
+                    <a:fld id="{2551238D-E2BD-43A1-B631-6201FFEA5BB2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6425,7 +6497,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E472C3A4-1E92-4E28-BA88-B0484CC05FB5}" type="CELLRANGE">
+                    <a:fld id="{4D4485C0-E503-4112-BA57-11DB5316E6ED}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6464,7 +6536,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2A75D678-50C8-46EC-AADC-F16D1886BB3E}" type="CELLRANGE">
+                    <a:fld id="{78AF6820-BAE3-46D4-BB68-EA2298808C71}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6503,7 +6575,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0317C08F-AF56-4902-871E-E70DA52E2180}" type="CELLRANGE">
+                    <a:fld id="{8BF8478E-122B-42AB-B124-577B3B1FFBC4}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6542,7 +6614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{155215CD-AEC8-4619-B1A3-BF0D85E7B4EB}" type="CELLRANGE">
+                    <a:fld id="{22BE79D8-D421-43F1-981D-40AD95744308}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6581,7 +6653,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2367DBEF-9065-4966-A5F2-23FDF2218DA1}" type="CELLRANGE">
+                    <a:fld id="{A31E4C44-80B7-4FE6-87E9-97C4F3BE44FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6614,7 +6686,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12453E70-C1BE-434B-8DD6-CCEAD84A6063}" type="CELLRANGE">
+                    <a:fld id="{1801EE9A-87E3-4331-B739-04A5808965CC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6648,7 +6720,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2FB8825B-70BD-4AAC-BE73-FB05CFF73F33}" type="CELLRANGE">
+                    <a:fld id="{1CEFA383-7C39-4078-A6C3-6A3610EC7ECF}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6688,7 +6760,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1D6FFD88-C759-481A-A204-5E3C08BEA4E2}" type="CELLRANGE">
+                    <a:fld id="{5D58E4BA-321E-4F6E-940C-ED2D1C9F0A9F}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6727,7 +6799,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BAA4B7C-379A-415C-8B42-770876FA1A45}" type="CELLRANGE">
+                    <a:fld id="{CCDB3476-8679-4BB9-ADD4-FC842E60C616}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6766,7 +6838,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F552C916-3FF7-4F24-AA53-748A545C3D1C}" type="CELLRANGE">
+                    <a:fld id="{09AB0E51-A926-4C39-B229-DA45179BFD72}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7527,7 +7599,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{969D5C15-DE7D-486D-A8FE-1948A1E9A0FE}" type="CELLRANGE">
+                    <a:fld id="{BCBBA021-05C2-4AC5-BD5B-B70202CFF664}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7560,7 +7632,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A765869D-FA5B-4F72-B55F-3957C086FBC7}" type="CELLRANGE">
+                    <a:fld id="{F81894CB-32A6-4B98-AF46-A20C08BE0F16}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7593,7 +7665,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A163028E-E17E-4487-A057-A324A7074C37}" type="CELLRANGE">
+                    <a:fld id="{E4090EEA-C50E-46C6-BC1B-8DDA00FCC583}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12262,20 +12334,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:CD71"/>
+  <dimension ref="B1:CD84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="5" topLeftCell="I51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="5" topLeftCell="N68" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
+      <selection pane="bottomRight" activeCell="U76" sqref="U76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="29.42578125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
@@ -12906,7 +12978,7 @@
         <v>110</v>
       </c>
       <c r="AC6" s="27">
-        <f>AB6*0.735499</f>
+        <f t="shared" ref="AC6:AC37" si="0">AB6*0.735499</f>
         <v>80.904889999999995</v>
       </c>
       <c r="AD6" s="1">
@@ -12916,7 +12988,7 @@
         <v>29</v>
       </c>
       <c r="AF6" s="27">
-        <f>AE6*9.80665</f>
+        <f t="shared" ref="AF6:AF37" si="1">AE6*9.80665</f>
         <v>284.39285000000001</v>
       </c>
       <c r="AG6" s="1">
@@ -13129,7 +13201,7 @@
         <v>110</v>
       </c>
       <c r="AC7" s="27">
-        <f>AB7*0.735499</f>
+        <f t="shared" si="0"/>
         <v>80.904889999999995</v>
       </c>
       <c r="AD7" s="1">
@@ -13139,7 +13211,7 @@
         <v>29</v>
       </c>
       <c r="AF7" s="27">
-        <f>AE7*9.80665</f>
+        <f t="shared" si="1"/>
         <v>284.39285000000001</v>
       </c>
       <c r="AG7" s="1">
@@ -13352,7 +13424,7 @@
         <v>110</v>
       </c>
       <c r="AC8" s="27">
-        <f>AB8*0.735499</f>
+        <f t="shared" si="0"/>
         <v>80.904889999999995</v>
       </c>
       <c r="AD8" s="1">
@@ -13362,7 +13434,7 @@
         <v>29</v>
       </c>
       <c r="AF8" s="27">
-        <f>AE8*9.80665</f>
+        <f t="shared" si="1"/>
         <v>284.39285000000001</v>
       </c>
       <c r="AG8" s="1">
@@ -13572,7 +13644,7 @@
         <v>110</v>
       </c>
       <c r="AC9" s="27">
-        <f>AB9*0.735499</f>
+        <f t="shared" si="0"/>
         <v>80.904889999999995</v>
       </c>
       <c r="AD9" s="1">
@@ -13582,7 +13654,7 @@
         <v>29</v>
       </c>
       <c r="AF9" s="27">
-        <f>AE9*9.80665</f>
+        <f t="shared" si="1"/>
         <v>284.39285000000001</v>
       </c>
       <c r="AG9" s="1">
@@ -13750,7 +13822,7 @@
         <v>110</v>
       </c>
       <c r="AC10" s="27">
-        <f>AB10*0.735499</f>
+        <f t="shared" si="0"/>
         <v>80.904889999999995</v>
       </c>
       <c r="AD10" s="1">
@@ -13760,7 +13832,7 @@
         <v>29</v>
       </c>
       <c r="AF10" s="27">
-        <f>AE10*9.80665</f>
+        <f t="shared" si="1"/>
         <v>284.39285000000001</v>
       </c>
       <c r="AG10" s="1">
@@ -13931,7 +14003,7 @@
         <v>110</v>
       </c>
       <c r="AC11" s="27">
-        <f>AB11*0.735499</f>
+        <f t="shared" si="0"/>
         <v>80.904889999999995</v>
       </c>
       <c r="AD11" s="1">
@@ -13941,7 +14013,7 @@
         <v>29</v>
       </c>
       <c r="AF11" s="27">
-        <f>AE11*9.80665</f>
+        <f t="shared" si="1"/>
         <v>284.39285000000001</v>
       </c>
       <c r="AG11" s="1">
@@ -14154,7 +14226,7 @@
         <v>110</v>
       </c>
       <c r="AC12" s="27">
-        <f>AB12*0.735499</f>
+        <f t="shared" si="0"/>
         <v>80.904889999999995</v>
       </c>
       <c r="AD12" s="1">
@@ -14164,7 +14236,7 @@
         <v>29</v>
       </c>
       <c r="AF12" s="27">
-        <f>AE12*9.80665</f>
+        <f t="shared" si="1"/>
         <v>284.39285000000001</v>
       </c>
       <c r="AG12" s="1">
@@ -14377,7 +14449,7 @@
         <v>110</v>
       </c>
       <c r="AC13" s="27">
-        <f>AB13*0.735499</f>
+        <f t="shared" si="0"/>
         <v>80.904889999999995</v>
       </c>
       <c r="AD13" s="1">
@@ -14387,7 +14459,7 @@
         <v>29</v>
       </c>
       <c r="AF13" s="27">
-        <f>AE13*9.80665</f>
+        <f t="shared" si="1"/>
         <v>284.39285000000001</v>
       </c>
       <c r="AG13" s="1">
@@ -14600,7 +14672,7 @@
         <v>130</v>
       </c>
       <c r="AC14" s="27">
-        <f>AB14*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD14" s="1">
@@ -14610,7 +14682,7 @@
         <v>38</v>
       </c>
       <c r="AF14" s="27">
-        <f>AE14*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG14" s="1">
@@ -14823,7 +14895,7 @@
         <v>130</v>
       </c>
       <c r="AC15" s="27">
-        <f>AB15*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD15" s="1">
@@ -14833,7 +14905,7 @@
         <v>38</v>
       </c>
       <c r="AF15" s="27">
-        <f>AE15*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG15" s="1">
@@ -15043,7 +15115,7 @@
         <v>130</v>
       </c>
       <c r="AC16" s="27">
-        <f>AB16*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD16" s="1">
@@ -15053,7 +15125,7 @@
         <v>38</v>
       </c>
       <c r="AF16" s="27">
-        <f>AE16*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG16" s="1">
@@ -15221,7 +15293,7 @@
         <v>130</v>
       </c>
       <c r="AC17" s="27">
-        <f>AB17*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD17" s="1">
@@ -15231,7 +15303,7 @@
         <v>37</v>
       </c>
       <c r="AF17" s="27">
-        <f>AE17*9.80665</f>
+        <f t="shared" si="1"/>
         <v>362.84604999999999</v>
       </c>
       <c r="AG17" s="1">
@@ -15399,7 +15471,7 @@
         <v>130</v>
       </c>
       <c r="AC18" s="27">
-        <f>AB18*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD18" s="1">
@@ -15409,7 +15481,7 @@
         <v>38</v>
       </c>
       <c r="AF18" s="27">
-        <f>AE18*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG18" s="1">
@@ -15622,7 +15694,7 @@
         <v>130</v>
       </c>
       <c r="AC19" s="27">
-        <f>AB19*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD19" s="1">
@@ -15632,7 +15704,7 @@
         <v>38</v>
       </c>
       <c r="AF19" s="27">
-        <f>AE19*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG19" s="1">
@@ -15845,7 +15917,7 @@
         <v>130</v>
       </c>
       <c r="AC20" s="27">
-        <f>AB20*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD20" s="1">
@@ -15855,7 +15927,7 @@
         <v>38</v>
       </c>
       <c r="AF20" s="27">
-        <f>AE20*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG20" s="1">
@@ -16068,7 +16140,7 @@
         <v>130</v>
       </c>
       <c r="AC21" s="27">
-        <f>AB21*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD21" s="1">
@@ -16078,7 +16150,7 @@
         <v>38</v>
       </c>
       <c r="AF21" s="27">
-        <f>AE21*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG21" s="1">
@@ -16291,7 +16363,7 @@
         <v>130</v>
       </c>
       <c r="AC22" s="27">
-        <f>AB22*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD22" s="1">
@@ -16301,7 +16373,7 @@
         <v>38</v>
       </c>
       <c r="AF22" s="27">
-        <f>AE22*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG22" s="1">
@@ -16517,7 +16589,7 @@
         <v>130</v>
       </c>
       <c r="AC23" s="27">
-        <f>AB23*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD23" s="1">
@@ -16527,7 +16599,7 @@
         <v>38</v>
       </c>
       <c r="AF23" s="27">
-        <f>AE23*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG23" s="1">
@@ -16740,7 +16812,7 @@
         <v>130</v>
       </c>
       <c r="AC24" s="27">
-        <f>AB24*0.735499</f>
+        <f t="shared" si="0"/>
         <v>95.614869999999996</v>
       </c>
       <c r="AD24" s="1">
@@ -16750,7 +16822,7 @@
         <v>38</v>
       </c>
       <c r="AF24" s="27">
-        <f>AE24*9.80665</f>
+        <f t="shared" si="1"/>
         <v>372.65269999999998</v>
       </c>
       <c r="AG24" s="1">
@@ -16963,7 +17035,7 @@
         <v>190</v>
       </c>
       <c r="AC25" s="1">
-        <f>AB25*0.735499</f>
+        <f t="shared" si="0"/>
         <v>139.74481</v>
       </c>
       <c r="AD25" s="1">
@@ -16973,7 +17045,7 @@
         <v>56</v>
       </c>
       <c r="AF25" s="1">
-        <f>AE25*9.80665</f>
+        <f t="shared" si="1"/>
         <v>549.17239999999993</v>
       </c>
       <c r="AG25" s="1">
@@ -17189,7 +17261,7 @@
         <v>235</v>
       </c>
       <c r="AC26" s="1">
-        <f>AB26*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD26" s="1">
@@ -17199,7 +17271,7 @@
         <v>72</v>
       </c>
       <c r="AF26" s="1">
-        <f>AE26*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG26" s="1">
@@ -17415,7 +17487,7 @@
         <v>235</v>
       </c>
       <c r="AC27" s="1">
-        <f>AB27*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD27" s="1">
@@ -17425,7 +17497,7 @@
         <v>72</v>
       </c>
       <c r="AF27" s="1">
-        <f>AE27*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG27" s="1">
@@ -17641,7 +17713,7 @@
         <v>235</v>
       </c>
       <c r="AC28" s="1">
-        <f>AB28*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD28" s="1">
@@ -17651,7 +17723,7 @@
         <v>72</v>
       </c>
       <c r="AF28" s="1">
-        <f>AE28*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG28" s="1">
@@ -17867,7 +17939,7 @@
         <v>235</v>
       </c>
       <c r="AC29" s="1">
-        <f>AB29*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD29" s="1">
@@ -17877,7 +17949,7 @@
         <v>72</v>
       </c>
       <c r="AF29" s="1">
-        <f>AE29*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG29" s="1">
@@ -18093,7 +18165,7 @@
         <v>235</v>
       </c>
       <c r="AC30" s="1">
-        <f>AB30*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD30" s="1">
@@ -18103,7 +18175,7 @@
         <v>72</v>
       </c>
       <c r="AF30" s="1">
-        <f>AE30*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG30" s="1">
@@ -18319,7 +18391,7 @@
         <v>235</v>
       </c>
       <c r="AC31" s="1">
-        <f>AB31*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD31" s="1">
@@ -18329,7 +18401,7 @@
         <v>72</v>
       </c>
       <c r="AF31" s="1">
-        <f>AE31*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG31" s="1">
@@ -18545,7 +18617,7 @@
         <v>235</v>
       </c>
       <c r="AC32" s="1">
-        <f>AB32*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD32" s="1">
@@ -18555,7 +18627,7 @@
         <v>72</v>
       </c>
       <c r="AF32" s="1">
-        <f>AE32*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG32" s="1">
@@ -18774,7 +18846,7 @@
         <v>235</v>
       </c>
       <c r="AC33" s="1">
-        <f>AB33*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD33" s="1">
@@ -18784,7 +18856,7 @@
         <v>72</v>
       </c>
       <c r="AF33" s="1">
-        <f>AE33*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG33" s="1">
@@ -19003,7 +19075,7 @@
         <v>235</v>
       </c>
       <c r="AC34" s="1">
-        <f>AB34*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD34" s="1">
@@ -19013,7 +19085,7 @@
         <v>72</v>
       </c>
       <c r="AF34" s="1">
-        <f>AE34*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG34" s="1">
@@ -19232,7 +19304,7 @@
         <v>235</v>
       </c>
       <c r="AC35" s="1">
-        <f>AB35*0.735499</f>
+        <f t="shared" si="0"/>
         <v>172.842265</v>
       </c>
       <c r="AD35" s="1">
@@ -19242,7 +19314,7 @@
         <v>72</v>
       </c>
       <c r="AF35" s="1">
-        <f>AE35*9.80665</f>
+        <f t="shared" si="1"/>
         <v>706.0788</v>
       </c>
       <c r="AG35" s="1">
@@ -19467,7 +19539,7 @@
         <v>245</v>
       </c>
       <c r="AC36" s="1">
-        <f>AB36*0.735499</f>
+        <f t="shared" si="0"/>
         <v>180.19725500000001</v>
       </c>
       <c r="AD36" s="1">
@@ -19477,7 +19549,7 @@
         <v>79</v>
       </c>
       <c r="AF36" s="1">
-        <f>AE36*9.80665</f>
+        <f t="shared" si="1"/>
         <v>774.72534999999993</v>
       </c>
       <c r="AG36" s="1">
@@ -19693,7 +19765,7 @@
         <v>245</v>
       </c>
       <c r="AC37" s="1">
-        <f>AB37*0.735499</f>
+        <f t="shared" si="0"/>
         <v>180.19725500000001</v>
       </c>
       <c r="AD37" s="1">
@@ -19703,7 +19775,7 @@
         <v>79</v>
       </c>
       <c r="AF37" s="1">
-        <f>AE37*9.80665</f>
+        <f t="shared" si="1"/>
         <v>774.72534999999993</v>
       </c>
       <c r="AG37" s="1">
@@ -19919,7 +19991,7 @@
         <v>245</v>
       </c>
       <c r="AC38" s="1">
-        <f>AB38*0.735499</f>
+        <f t="shared" ref="AC38:AC69" si="2">AB38*0.735499</f>
         <v>180.19725500000001</v>
       </c>
       <c r="AD38" s="1">
@@ -19929,7 +20001,7 @@
         <v>79</v>
       </c>
       <c r="AF38" s="1">
-        <f>AE38*9.80665</f>
+        <f t="shared" ref="AF38:AF69" si="3">AE38*9.80665</f>
         <v>774.72534999999993</v>
       </c>
       <c r="AG38" s="1">
@@ -20142,7 +20214,7 @@
         <v>245</v>
       </c>
       <c r="AC39" s="1">
-        <f>AB39*0.735499</f>
+        <f t="shared" si="2"/>
         <v>180.19725500000001</v>
       </c>
       <c r="AD39" s="1">
@@ -20152,7 +20224,7 @@
         <v>79</v>
       </c>
       <c r="AF39" s="1">
-        <f>AE39*9.80665</f>
+        <f t="shared" si="3"/>
         <v>774.72534999999993</v>
       </c>
       <c r="AG39" s="1">
@@ -20368,7 +20440,7 @@
         <v>245</v>
       </c>
       <c r="AC40" s="1">
-        <f>AB40*0.735499</f>
+        <f t="shared" si="2"/>
         <v>180.19725500000001</v>
       </c>
       <c r="AD40" s="1">
@@ -20378,7 +20450,7 @@
         <v>79</v>
       </c>
       <c r="AF40" s="1">
-        <f>AE40*9.80665</f>
+        <f t="shared" si="3"/>
         <v>774.72534999999993</v>
       </c>
       <c r="AG40" s="1">
@@ -20594,7 +20666,7 @@
         <v>245</v>
       </c>
       <c r="AC41" s="1">
-        <f>AB41*0.735499</f>
+        <f t="shared" si="2"/>
         <v>180.19725500000001</v>
       </c>
       <c r="AD41" s="1">
@@ -20604,7 +20676,7 @@
         <v>79</v>
       </c>
       <c r="AF41" s="1">
-        <f>AE41*9.80665</f>
+        <f t="shared" si="3"/>
         <v>774.72534999999993</v>
       </c>
       <c r="AG41" s="1">
@@ -20823,7 +20895,7 @@
         <v>245</v>
       </c>
       <c r="AC42" s="1">
-        <f>AB42*0.735499</f>
+        <f t="shared" si="2"/>
         <v>180.19725500000001</v>
       </c>
       <c r="AD42" s="1">
@@ -20833,7 +20905,7 @@
         <v>79</v>
       </c>
       <c r="AF42" s="1">
-        <f>AE42*9.80665</f>
+        <f t="shared" si="3"/>
         <v>774.72534999999993</v>
       </c>
       <c r="AG42" s="1">
@@ -21052,7 +21124,7 @@
         <v>245</v>
       </c>
       <c r="AC43" s="1">
-        <f>AB43*0.735499</f>
+        <f t="shared" si="2"/>
         <v>180.19725500000001</v>
       </c>
       <c r="AD43" s="1">
@@ -21062,7 +21134,7 @@
         <v>79</v>
       </c>
       <c r="AF43" s="1">
-        <f>AE43*9.80665</f>
+        <f t="shared" si="3"/>
         <v>774.72534999999993</v>
       </c>
       <c r="AG43" s="1">
@@ -21281,7 +21353,7 @@
         <v>245</v>
       </c>
       <c r="AC44" s="1">
-        <f>AB44*0.735499</f>
+        <f t="shared" si="2"/>
         <v>180.19725500000001</v>
       </c>
       <c r="AD44" s="1">
@@ -21291,7 +21363,7 @@
         <v>79</v>
       </c>
       <c r="AF44" s="1">
-        <f>AE44*9.80665</f>
+        <f t="shared" si="3"/>
         <v>774.72534999999993</v>
       </c>
       <c r="AG44" s="1">
@@ -21510,7 +21582,7 @@
         <v>245</v>
       </c>
       <c r="AC45" s="1">
-        <f>AB45*0.735499</f>
+        <f t="shared" si="2"/>
         <v>180.19725500000001</v>
       </c>
       <c r="AD45" s="1">
@@ -21520,7 +21592,7 @@
         <v>79</v>
       </c>
       <c r="AF45" s="1">
-        <f>AE45*9.80665</f>
+        <f t="shared" si="3"/>
         <v>774.72534999999993</v>
       </c>
       <c r="AG45" s="1">
@@ -21736,7 +21808,7 @@
         <v>260</v>
       </c>
       <c r="AC46" s="1">
-        <f>AB46*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD46" s="1">
@@ -21746,7 +21818,7 @@
         <v>76</v>
       </c>
       <c r="AF46" s="1">
-        <f>AE46*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG46" s="1">
@@ -21965,7 +22037,7 @@
         <v>260</v>
       </c>
       <c r="AC47" s="1">
-        <f>AB47*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD47" s="1">
@@ -21975,7 +22047,7 @@
         <v>76</v>
       </c>
       <c r="AF47" s="1">
-        <f>AE47*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG47" s="1">
@@ -22203,7 +22275,7 @@
         <v>260</v>
       </c>
       <c r="AC48" s="39">
-        <f>AB48*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD48" s="39">
@@ -22213,7 +22285,7 @@
         <v>76</v>
       </c>
       <c r="AF48" s="39">
-        <f>AE48*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG48" s="39">
@@ -22441,7 +22513,7 @@
         <v>260</v>
       </c>
       <c r="AC49" s="39">
-        <f>AB49*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD49" s="39">
@@ -22451,7 +22523,7 @@
         <v>76</v>
       </c>
       <c r="AF49" s="39">
-        <f>AE49*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG49" s="39">
@@ -22679,7 +22751,7 @@
         <v>260</v>
       </c>
       <c r="AC50" s="39">
-        <f>AB50*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD50" s="39">
@@ -22689,7 +22761,7 @@
         <v>76</v>
       </c>
       <c r="AF50" s="39">
-        <f>AE50*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG50" s="39">
@@ -22917,7 +22989,7 @@
         <v>260</v>
       </c>
       <c r="AC51" s="39">
-        <f>AB51*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD51" s="39">
@@ -22927,7 +22999,7 @@
         <v>76</v>
       </c>
       <c r="AF51" s="39">
-        <f>AE51*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG51" s="39">
@@ -23155,7 +23227,7 @@
         <v>260</v>
       </c>
       <c r="AC52" s="39">
-        <f>AB52*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD52" s="39">
@@ -23165,7 +23237,7 @@
         <v>76</v>
       </c>
       <c r="AF52" s="39">
-        <f>AE52*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG52" s="39">
@@ -23390,7 +23462,7 @@
         <v>260</v>
       </c>
       <c r="AC53" s="39">
-        <f>AB53*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD53" s="39">
@@ -23400,7 +23472,7 @@
         <v>76</v>
       </c>
       <c r="AF53" s="39">
-        <f>AE53*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG53" s="39">
@@ -23625,7 +23697,7 @@
         <v>260</v>
       </c>
       <c r="AC54" s="39">
-        <f>AB54*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD54" s="39">
@@ -23635,7 +23707,7 @@
         <v>76</v>
       </c>
       <c r="AF54" s="39">
-        <f>AE54*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG54" s="39">
@@ -23866,7 +23938,7 @@
         <v>260</v>
       </c>
       <c r="AC55" s="1">
-        <f>AB55*0.735499</f>
+        <f t="shared" si="2"/>
         <v>191.22973999999999</v>
       </c>
       <c r="AD55" s="1">
@@ -23876,7 +23948,7 @@
         <v>76</v>
       </c>
       <c r="AF55" s="1">
-        <f>AE55*9.80665</f>
+        <f t="shared" si="3"/>
         <v>745.30539999999996</v>
       </c>
       <c r="AG55" s="1">
@@ -24101,7 +24173,7 @@
         <v>265</v>
       </c>
       <c r="AC56" s="1">
-        <f>AB56*0.735499</f>
+        <f t="shared" si="2"/>
         <v>194.90723500000001</v>
       </c>
       <c r="AD56" s="1">
@@ -24111,7 +24183,7 @@
         <v>82</v>
       </c>
       <c r="AF56" s="1">
-        <f>AE56*9.80665</f>
+        <f t="shared" si="3"/>
         <v>804.14529999999991</v>
       </c>
       <c r="AG56" s="1">
@@ -24330,7 +24402,7 @@
         <v>265</v>
       </c>
       <c r="AC57" s="1">
-        <f>AB57*0.735499</f>
+        <f t="shared" si="2"/>
         <v>194.90723500000001</v>
       </c>
       <c r="AD57" s="1">
@@ -24340,7 +24412,7 @@
         <v>82</v>
       </c>
       <c r="AF57" s="1">
-        <f>AE57*9.80665</f>
+        <f t="shared" si="3"/>
         <v>804.14529999999991</v>
       </c>
       <c r="AG57" s="1">
@@ -24568,7 +24640,7 @@
         <v>350</v>
       </c>
       <c r="AC58" s="1">
-        <f>AB58*0.735499</f>
+        <f t="shared" si="2"/>
         <v>257.42464999999999</v>
       </c>
       <c r="AD58" s="1">
@@ -24578,7 +24650,7 @@
         <v>134</v>
       </c>
       <c r="AF58" s="1">
-        <f>AE58*9.80665</f>
+        <f t="shared" si="3"/>
         <v>1314.0910999999999</v>
       </c>
       <c r="AG58" s="1">
@@ -24806,7 +24878,7 @@
         <v>350</v>
       </c>
       <c r="AC59" s="1">
-        <f>AB59*0.735499</f>
+        <f t="shared" si="2"/>
         <v>257.42464999999999</v>
       </c>
       <c r="AD59" s="1">
@@ -24816,7 +24888,7 @@
         <v>134</v>
       </c>
       <c r="AF59" s="1">
-        <f>AE59*9.80665</f>
+        <f t="shared" si="3"/>
         <v>1314.0910999999999</v>
       </c>
       <c r="AG59" s="1">
@@ -25044,7 +25116,7 @@
         <v>265</v>
       </c>
       <c r="AC60" s="1">
-        <f>AB60*0.735499</f>
+        <f t="shared" si="2"/>
         <v>194.90723500000001</v>
       </c>
       <c r="AD60" s="1">
@@ -25054,7 +25126,7 @@
         <v>82</v>
       </c>
       <c r="AF60" s="1">
-        <f>AE60*9.80665</f>
+        <f t="shared" si="3"/>
         <v>804.14529999999991</v>
       </c>
       <c r="AG60" s="1">
@@ -25282,7 +25354,7 @@
         <v>265</v>
       </c>
       <c r="AC61" s="1">
-        <f>AB61*0.735499</f>
+        <f t="shared" si="2"/>
         <v>194.90723500000001</v>
       </c>
       <c r="AD61" s="1">
@@ -25292,7 +25364,7 @@
         <v>82</v>
       </c>
       <c r="AF61" s="1">
-        <f>AE61*9.80665</f>
+        <f t="shared" si="3"/>
         <v>804.14529999999991</v>
       </c>
       <c r="AG61" s="1">
@@ -25520,7 +25592,7 @@
         <v>285</v>
       </c>
       <c r="AC62" s="1">
-        <f>AB62*0.735499</f>
+        <f t="shared" si="2"/>
         <v>209.61721500000002</v>
       </c>
       <c r="AD62" s="1">
@@ -25530,7 +25602,7 @@
         <v>91</v>
       </c>
       <c r="AF62" s="1">
-        <f>AE62*9.80665</f>
+        <f t="shared" si="3"/>
         <v>892.40514999999994</v>
       </c>
       <c r="AG62" s="1">
@@ -25758,7 +25830,7 @@
         <v>285</v>
       </c>
       <c r="AC63" s="1">
-        <f>AB63*0.735499</f>
+        <f t="shared" si="2"/>
         <v>209.61721500000002</v>
       </c>
       <c r="AD63" s="1">
@@ -25768,7 +25840,7 @@
         <v>91</v>
       </c>
       <c r="AF63" s="1">
-        <f>AE63*9.80665</f>
+        <f t="shared" si="3"/>
         <v>892.40514999999994</v>
       </c>
       <c r="AG63" s="1">
@@ -25996,7 +26068,7 @@
         <v>350</v>
       </c>
       <c r="AC64" s="1">
-        <f>AB64*0.735499</f>
+        <f t="shared" si="2"/>
         <v>257.42464999999999</v>
       </c>
       <c r="AD64" s="1">
@@ -26006,7 +26078,7 @@
         <v>134</v>
       </c>
       <c r="AF64" s="1">
-        <f>AE64*9.80665</f>
+        <f t="shared" si="3"/>
         <v>1314.0910999999999</v>
       </c>
       <c r="AG64" s="1">
@@ -26234,7 +26306,7 @@
         <v>350</v>
       </c>
       <c r="AC65" s="1">
-        <f>AB65*0.735499</f>
+        <f t="shared" si="2"/>
         <v>257.42464999999999</v>
       </c>
       <c r="AD65" s="1">
@@ -26244,7 +26316,7 @@
         <v>134</v>
       </c>
       <c r="AF65" s="1">
-        <f>AE65*9.80665</f>
+        <f t="shared" si="3"/>
         <v>1314.0910999999999</v>
       </c>
       <c r="AG65" s="1">
@@ -26472,7 +26544,7 @@
         <v>285</v>
       </c>
       <c r="AC66" s="1">
-        <f>AB66*0.735499</f>
+        <f t="shared" si="2"/>
         <v>209.61721500000002</v>
       </c>
       <c r="AD66" s="1">
@@ -26482,7 +26554,7 @@
         <v>91</v>
       </c>
       <c r="AF66" s="1">
-        <f>AE66*9.80665</f>
+        <f t="shared" si="3"/>
         <v>892.40514999999994</v>
       </c>
       <c r="AG66" s="1">
@@ -26710,7 +26782,7 @@
         <v>285</v>
       </c>
       <c r="AC67" s="1">
-        <f>AB67*0.735499</f>
+        <f t="shared" si="2"/>
         <v>209.61721500000002</v>
       </c>
       <c r="AD67" s="1">
@@ -26720,7 +26792,7 @@
         <v>91</v>
       </c>
       <c r="AF67" s="1">
-        <f>AE67*9.80665</f>
+        <f t="shared" si="3"/>
         <v>892.40514999999994</v>
       </c>
       <c r="AG67" s="1">
@@ -26948,7 +27020,7 @@
         <v>285</v>
       </c>
       <c r="AC68" s="1">
-        <f>AB68*0.735499</f>
+        <f t="shared" si="2"/>
         <v>209.61721500000002</v>
       </c>
       <c r="AD68" s="1">
@@ -26958,7 +27030,7 @@
         <v>91</v>
       </c>
       <c r="AF68" s="1">
-        <f>AE68*9.80665</f>
+        <f t="shared" si="3"/>
         <v>892.40514999999994</v>
       </c>
       <c r="AG68" s="1">
@@ -27183,7 +27255,7 @@
         <v>285</v>
       </c>
       <c r="AC69" s="1">
-        <f>AB69*0.735499</f>
+        <f t="shared" si="2"/>
         <v>209.61721500000002</v>
       </c>
       <c r="AD69" s="1">
@@ -27193,7 +27265,7 @@
         <v>91</v>
       </c>
       <c r="AF69" s="1">
-        <f>AE69*9.80665</f>
+        <f t="shared" si="3"/>
         <v>892.40514999999994</v>
       </c>
       <c r="AG69" s="1">
@@ -27418,7 +27490,7 @@
         <v>285</v>
       </c>
       <c r="AC70" s="1">
-        <f>AB70*0.735499</f>
+        <f t="shared" ref="AC70:AC101" si="4">AB70*0.735499</f>
         <v>209.61721500000002</v>
       </c>
       <c r="AD70" s="1">
@@ -27428,7 +27500,7 @@
         <v>91</v>
       </c>
       <c r="AF70" s="1">
-        <f>AE70*9.80665</f>
+        <f t="shared" ref="AF70:AF101" si="5">AE70*9.80665</f>
         <v>892.40514999999994</v>
       </c>
       <c r="AG70" s="1">
@@ -27659,7 +27731,7 @@
         <v>350</v>
       </c>
       <c r="AC71" s="1">
-        <f>AB71*0.735499</f>
+        <f t="shared" si="4"/>
         <v>257.42464999999999</v>
       </c>
       <c r="AD71" s="1">
@@ -27669,7 +27741,7 @@
         <v>134</v>
       </c>
       <c r="AF71" s="1">
-        <f>AE71*9.80665</f>
+        <f t="shared" si="5"/>
         <v>1314.0910999999999</v>
       </c>
       <c r="AG71" s="1">
@@ -27815,6 +27887,378 @@
       </c>
       <c r="CB71" s="1" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="2:80">
+      <c r="B72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="T72" s="1">
+        <v>3800</v>
+      </c>
+      <c r="U72" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V72" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>136</v>
+      </c>
+      <c r="AC72" s="1">
+        <f t="shared" si="4"/>
+        <v>100.02786400000001</v>
+      </c>
+    </row>
+    <row r="73" spans="2:80">
+      <c r="B73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="T73" s="1">
+        <v>4450</v>
+      </c>
+      <c r="U73" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V73" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>136</v>
+      </c>
+      <c r="AC73" s="1">
+        <f t="shared" si="4"/>
+        <v>100.02786400000001</v>
+      </c>
+    </row>
+    <row r="74" spans="2:80">
+      <c r="B74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="T74" s="1">
+        <v>3800</v>
+      </c>
+      <c r="U74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V74" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB74" s="1">
+        <v>136</v>
+      </c>
+      <c r="AC74" s="1">
+        <f t="shared" si="4"/>
+        <v>100.02786400000001</v>
+      </c>
+    </row>
+    <row r="75" spans="2:80">
+      <c r="B75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T75" s="1">
+        <v>4460</v>
+      </c>
+      <c r="U75" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V75" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB75" s="1">
+        <v>136</v>
+      </c>
+      <c r="AC75" s="1">
+        <f t="shared" si="4"/>
+        <v>100.02786400000001</v>
+      </c>
+    </row>
+    <row r="76" spans="2:80">
+      <c r="B76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="T76" s="1">
+        <v>7500</v>
+      </c>
+      <c r="U76" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V76" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="AB76" s="1">
+        <v>136</v>
+      </c>
+      <c r="AC76" s="1">
+        <f t="shared" si="4"/>
+        <v>100.02786400000001</v>
+      </c>
+    </row>
+    <row r="77" spans="2:80">
+      <c r="B77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="T77" s="1">
+        <v>10400</v>
+      </c>
+      <c r="U77" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="V77" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="AB77" s="1">
+        <v>210</v>
+      </c>
+      <c r="AC77" s="1">
+        <f t="shared" si="4"/>
+        <v>154.45479</v>
+      </c>
+    </row>
+    <row r="78" spans="2:80">
+      <c r="B78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T78" s="1">
+        <v>16000</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>240</v>
+      </c>
+      <c r="AC78" s="1">
+        <f t="shared" si="4"/>
+        <v>176.51975999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:80">
+      <c r="B79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="T79" s="1">
+        <v>26000</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>280</v>
+      </c>
+      <c r="AC79" s="1">
+        <f t="shared" si="4"/>
+        <v>205.93971999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="2:80">
+      <c r="B80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="T80" s="1">
+        <v>28000</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB80" s="1">
+        <v>280</v>
+      </c>
+      <c r="AC80" s="1">
+        <f t="shared" si="4"/>
+        <v>205.93971999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="2:29">
+      <c r="B81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="T81" s="1">
+        <v>32000</v>
+      </c>
+      <c r="V81" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB81" s="1">
+        <v>350</v>
+      </c>
+      <c r="AC81" s="1">
+        <f t="shared" si="4"/>
+        <v>257.42464999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="2:29">
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="T82" s="1">
+        <v>28000</v>
+      </c>
+      <c r="V82" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB82" s="1">
+        <v>350</v>
+      </c>
+      <c r="AC82" s="1">
+        <f t="shared" si="4"/>
+        <v>257.42464999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="2:29">
+      <c r="B83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="T83" s="1">
+        <v>28000</v>
+      </c>
+      <c r="V83" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB83" s="1">
+        <v>350</v>
+      </c>
+      <c r="AC83" s="1">
+        <f t="shared" si="4"/>
+        <v>257.42464999999999</v>
+      </c>
+    </row>
+    <row r="84" spans="2:29">
+      <c r="B84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="T84" s="1">
+        <v>26000</v>
+      </c>
+      <c r="V84" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB84" s="1">
+        <v>350</v>
+      </c>
+      <c r="AC84" s="1">
+        <f t="shared" si="4"/>
+        <v>257.42464999999999</v>
       </c>
     </row>
   </sheetData>
